--- a/asset/Documents/Exastro-ITA_[Reference]Registered_Service_list.xlsx
+++ b/asset/Documents/Exastro-ITA_[Reference]Registered_Service_list.xlsx
@@ -2,14 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\000001A00BCX3\Desktop\mail\Translation folder\Translation Documents\Documents ENG\Finished\1.7\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10812" tabRatio="566"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19725" windowHeight="9465" tabRatio="566"/>
   </bookViews>
   <sheets>
     <sheet name="登録サービス一覧" sheetId="12" r:id="rId1"/>
@@ -2840,19 +2835,19 @@
       <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.09765625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="9" customWidth="1"/>
     <col min="2" max="2" width="5.5" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.8984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="60.69921875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="47.8984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="60.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="47.875" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="18" t="s">
         <v>108</v>
       </c>
@@ -2865,7 +2860,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B2" s="16"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -2873,7 +2868,7 @@
       <c r="F2" s="19"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B3" s="13" t="s">
         <v>191</v>
       </c>
@@ -2883,7 +2878,7 @@
       <c r="F3" s="19"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B4" s="13" t="s">
         <v>192</v>
       </c>
@@ -2893,7 +2888,7 @@
       <c r="F4" s="19"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B5" s="16"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -2901,7 +2896,7 @@
       <c r="F5" s="19"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="23" t="s">
         <v>105</v>
       </c>
@@ -2921,7 +2916,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B7" s="22">
         <v>1</v>
       </c>
@@ -2941,7 +2936,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8" s="22">
         <v>2</v>
       </c>
@@ -2961,7 +2956,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B9" s="22">
         <v>3</v>
       </c>
@@ -2981,7 +2976,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="63" x14ac:dyDescent="0.4">
       <c r="B10" s="22">
         <v>4</v>
       </c>
@@ -3001,7 +2996,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="63" x14ac:dyDescent="0.4">
       <c r="B11" s="22">
         <v>5</v>
       </c>
@@ -3021,7 +3016,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B12" s="22">
         <v>6</v>
       </c>
@@ -3041,7 +3036,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="47.25" x14ac:dyDescent="0.4">
       <c r="B13" s="22">
         <v>7</v>
       </c>
@@ -3061,7 +3056,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="63" x14ac:dyDescent="0.4">
       <c r="B14" s="22">
         <v>8</v>
       </c>
@@ -3081,7 +3076,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="63" x14ac:dyDescent="0.4">
       <c r="B15" s="22">
         <v>9</v>
       </c>
@@ -3101,7 +3096,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" ht="63" x14ac:dyDescent="0.4">
       <c r="B16" s="22">
         <v>10</v>
       </c>
@@ -3121,7 +3116,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="60" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:8" ht="63" x14ac:dyDescent="0.4">
       <c r="B17" s="22">
         <v>11</v>
       </c>
@@ -3141,7 +3136,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="60" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:8" ht="63" x14ac:dyDescent="0.4">
       <c r="B18" s="22">
         <v>12</v>
       </c>
@@ -3161,7 +3156,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="60" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:8" ht="63" x14ac:dyDescent="0.4">
       <c r="B19" s="22">
         <v>13</v>
       </c>
@@ -3182,7 +3177,7 @@
       </c>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="2:8" ht="60" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:8" ht="63" x14ac:dyDescent="0.4">
       <c r="B20" s="22">
         <v>14</v>
       </c>
@@ -3203,7 +3198,7 @@
       </c>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="2:8" ht="60" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:8" ht="63" x14ac:dyDescent="0.4">
       <c r="B21" s="22">
         <v>15</v>
       </c>
@@ -3223,7 +3218,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="60" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:8" ht="63" x14ac:dyDescent="0.4">
       <c r="B22" s="22">
         <v>16</v>
       </c>
@@ -3243,7 +3238,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="75" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B23" s="22">
         <v>17</v>
       </c>
@@ -3263,7 +3258,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="60" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:8" ht="63" x14ac:dyDescent="0.4">
       <c r="B24" s="22">
         <v>18</v>
       </c>
@@ -3283,7 +3278,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="60" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:8" ht="63" x14ac:dyDescent="0.4">
       <c r="B25" s="22">
         <v>19</v>
       </c>
@@ -3303,7 +3298,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="60" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:8" ht="63" x14ac:dyDescent="0.4">
       <c r="B26" s="22">
         <v>20</v>
       </c>
@@ -3323,7 +3318,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="75" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B27" s="22">
         <v>21</v>
       </c>
@@ -3343,7 +3338,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="60" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:8" ht="63" x14ac:dyDescent="0.4">
       <c r="B28" s="22">
         <v>22</v>
       </c>
@@ -3363,7 +3358,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="60" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:8" ht="63" x14ac:dyDescent="0.4">
       <c r="B29" s="22">
         <v>23</v>
       </c>
@@ -3383,7 +3378,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="75" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B30" s="22">
         <v>24</v>
       </c>
@@ -3403,7 +3398,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="75" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B31" s="22">
         <v>25</v>
       </c>
@@ -3423,7 +3418,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="75" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B32" s="22">
         <v>26</v>
       </c>
@@ -3443,7 +3438,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B33" s="22">
         <v>27</v>
       </c>
@@ -3463,7 +3458,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="75" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B34" s="22">
         <v>28</v>
       </c>
@@ -3483,7 +3478,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="75" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B35" s="22">
         <v>29</v>
       </c>
@@ -3503,7 +3498,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="75" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B36" s="22">
         <v>30</v>
       </c>
@@ -3523,7 +3518,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="75" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B37" s="22">
         <v>31</v>
       </c>
@@ -3543,7 +3538,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="60" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B38" s="22">
         <v>32</v>
       </c>
@@ -3563,7 +3558,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="75" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B39" s="22">
         <v>33</v>
       </c>
@@ -3583,7 +3578,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="75" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B40" s="22">
         <v>34</v>
       </c>
@@ -3603,7 +3598,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="75" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B41" s="22">
         <v>35</v>
       </c>
@@ -3623,7 +3618,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="75" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B42" s="22">
         <v>36</v>
       </c>
@@ -3643,7 +3638,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="75" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B43" s="22">
         <v>37</v>
       </c>
@@ -3663,7 +3658,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="60" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" ht="63" x14ac:dyDescent="0.4">
       <c r="B44" s="22">
         <v>38</v>
       </c>
@@ -3684,7 +3679,7 @@
       </c>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" spans="1:8" ht="75" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B45" s="22">
         <v>39</v>
       </c>
@@ -3705,67 +3700,67 @@
       </c>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
       <c r="F46" s="21"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
     </row>
   </sheetData>
@@ -3792,14 +3787,14 @@
       <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="64.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -3807,7 +3802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -3815,7 +3810,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -3823,7 +3818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
@@ -3831,7 +3826,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
@@ -3839,7 +3834,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
@@ -3847,7 +3842,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
@@ -3855,7 +3850,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -3863,7 +3858,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
@@ -3871,7 +3866,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
@@ -3879,7 +3874,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>37</v>
       </c>
@@ -3887,7 +3882,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>39</v>
       </c>
@@ -3895,7 +3890,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>41</v>
       </c>
@@ -3903,7 +3898,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>43</v>
       </c>
@@ -3911,7 +3906,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>45</v>
       </c>
@@ -3919,7 +3914,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>47</v>
       </c>
@@ -3927,7 +3922,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>49</v>
       </c>
@@ -3935,7 +3930,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>51</v>
       </c>
@@ -3943,7 +3938,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>53</v>
       </c>
@@ -3951,7 +3946,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
         <v>55</v>
       </c>
@@ -3975,16 +3970,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.8984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>57</v>
       </c>
@@ -3998,7 +3993,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
@@ -4012,7 +4007,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>59</v>
       </c>
@@ -4026,7 +4021,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -4040,7 +4035,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>70</v>
       </c>
